--- a/Models/Model_5_h_sens/ModelData.xlsx
+++ b/Models/Model_5_h_sens/ModelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Dir" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="99">
   <si>
     <t>ROCK</t>
   </si>
@@ -274,21 +274,9 @@
     <t>co2_prod1</t>
   </si>
   <si>
-    <t>monitor_inj1</t>
-  </si>
-  <si>
-    <t>monitor_prod1</t>
-  </si>
-  <si>
     <t>co2_prod2</t>
   </si>
   <si>
-    <t>monitor_prod2</t>
-  </si>
-  <si>
-    <t>monitor_prod3</t>
-  </si>
-  <si>
     <t>co2_prod3</t>
   </si>
   <si>
@@ -311,18 +299,6 @@
   </si>
   <si>
     <t>cont.timestep_interval</t>
-  </si>
-  <si>
-    <t>SK2D</t>
-  </si>
-  <si>
-    <t>SK1D</t>
-  </si>
-  <si>
-    <t>SK5D</t>
-  </si>
-  <si>
-    <t>APO1D</t>
   </si>
   <si>
     <t>optimize</t>
@@ -719,7 +695,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +703,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -757,7 +733,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +786,7 @@
         <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -869,9 +845,13 @@
       <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" t="str">
-        <f>hist!C2</f>
-        <v>SK2D</v>
+      <c r="E4">
+        <f>hist!D2</f>
+        <v>525380.56099999999</v>
+      </c>
+      <c r="F4">
+        <f>hist!E2</f>
+        <v>774425.84900000005</v>
       </c>
       <c r="G4">
         <f>hist!F2</f>
@@ -879,7 +859,7 @@
       </c>
       <c r="H4" s="4">
         <f>-L4*1000000000/(365.25*24*3600)</f>
-        <v>-19.780790719999999</v>
+        <v>-25.107736890000002</v>
       </c>
       <c r="I4" s="3">
         <v>-30</v>
@@ -892,7 +872,7 @@
       </c>
       <c r="L4" s="4">
         <f>SUM(L5:L7)</f>
-        <v>0.62423428122547198</v>
+        <v>0.792339917679864</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -908,9 +888,13 @@
       <c r="C5" t="s">
         <v>62</v>
       </c>
-      <c r="D5" t="str">
-        <f>hist!C3</f>
-        <v>SK1D</v>
+      <c r="E5">
+        <f>hist!D3</f>
+        <v>525599.83700000006</v>
+      </c>
+      <c r="F5">
+        <f>hist!E3</f>
+        <v>774290.10699999996</v>
       </c>
       <c r="G5">
         <f>hist!F3</f>
@@ -918,7 +902,7 @@
       </c>
       <c r="H5" s="4">
         <f>L5*1000000000/(365.25*24*3600)</f>
-        <v>6.5935869899999995</v>
+        <v>9.0271486000000003</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -931,18 +915,18 @@
       </c>
       <c r="L5" s="4">
         <f>O5/1000000000*(365.25*24*3600)</f>
-        <v>0.208077780795624</v>
+        <v>0.28487514465935998</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.5935869900000004</v>
+        <v>9.0271486000000003</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>32</v>
@@ -950,9 +934,13 @@
       <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" t="str">
-        <f>hist!C4</f>
-        <v>SK5D</v>
+      <c r="E6">
+        <f>hist!D4</f>
+        <v>525578.95400000003</v>
+      </c>
+      <c r="F6">
+        <f>hist!E4</f>
+        <v>774752.152</v>
       </c>
       <c r="G6">
         <f>hist!F4</f>
@@ -960,7 +948,7 @@
       </c>
       <c r="H6" s="4">
         <f>L6*1000000000/(365.25*24*3600)</f>
-        <v>6.5314241199999996</v>
+        <v>9.0551068999999984</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -973,18 +961,18 @@
       </c>
       <c r="L6" s="4">
         <f t="shared" ref="L6:L7" si="0">O6/1000000000*(365.25*24*3600)</f>
-        <v>0.20611606980931199</v>
+        <v>0.28575744150743998</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.5314241199999996</v>
+        <v>9.0551069000000002</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>33</v>
@@ -992,9 +980,13 @@
       <c r="C7" t="s">
         <v>62</v>
       </c>
-      <c r="D7" t="str">
-        <f>hist!C5</f>
-        <v>APO1D</v>
+      <c r="E7">
+        <f>hist!D5</f>
+        <v>525041.20600000001</v>
+      </c>
+      <c r="F7">
+        <f>hist!E5</f>
+        <v>774838.29599999997</v>
       </c>
       <c r="G7">
         <f>hist!F5</f>
@@ -1002,7 +994,7 @@
       </c>
       <c r="H7" s="4">
         <f>L7*1000000000/(365.25*24*3600)</f>
-        <v>6.6557796099999997</v>
+        <v>7.0254813900000013</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1015,13 +1007,13 @@
       </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>0.21004043062053601</v>
+        <v>0.22170733151306402</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.6557796099999997</v>
+        <v>7.0254813900000004</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1054,7 +1046,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1094,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -1110,12 +1102,15 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="str">
-        <f>CO2_S1_BC!D4</f>
-        <v>SK2D</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <f>CO2_S1_BC!E4</f>
+        <v>525380.56099999999</v>
+      </c>
+      <c r="F2" s="3">
+        <f>CO2_S1_BC!F4</f>
+        <v>774425.84900000005</v>
+      </c>
       <c r="G2" s="3">
         <f>CO2_S1_BC!G4</f>
         <v>750</v>
@@ -1146,7 +1141,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1186,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -1199,9 +1194,17 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2">
         <f>CO2_S2_BC!D4</f>
-        <v>SK2D</v>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>CO2_S2_BC!E4</f>
+        <v>525380.56099999999</v>
+      </c>
+      <c r="F2">
+        <f>CO2_S2_BC!F4</f>
+        <v>774425.84900000005</v>
       </c>
       <c r="G2">
         <f>CO2_S2_BC!G4</f>
@@ -1209,7 +1212,7 @@
       </c>
       <c r="H2">
         <f>CO2_S2_BC!H4</f>
-        <v>-19.780790719999999</v>
+        <v>-25.107736890000002</v>
       </c>
       <c r="I2">
         <f>CO2_S2_BC!I4</f>
@@ -1220,12 +1223,12 @@
       </c>
       <c r="L2" s="4">
         <f>CO2_S2_BC!L4</f>
-        <v>0.62423428122547198</v>
+        <v>0.792339917679864</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>31</v>
@@ -1233,9 +1236,17 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3">
         <f>CO2_S2_BC!D5</f>
-        <v>SK1D</v>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>CO2_S2_BC!E5</f>
+        <v>525599.83700000006</v>
+      </c>
+      <c r="F3">
+        <f>CO2_S2_BC!F5</f>
+        <v>774290.10699999996</v>
       </c>
       <c r="G3">
         <f>CO2_S2_BC!G5</f>
@@ -1243,7 +1254,7 @@
       </c>
       <c r="H3">
         <f>CO2_S2_BC!H5</f>
-        <v>6.5935869899999995</v>
+        <v>9.0271486000000003</v>
       </c>
       <c r="I3">
         <f>CO2_S2_BC!I5</f>
@@ -1254,12 +1265,12 @@
       </c>
       <c r="L3" s="4">
         <f>CO2_S2_BC!L5</f>
-        <v>0.208077780795624</v>
+        <v>0.28487514465935998</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>32</v>
@@ -1267,9 +1278,17 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4">
         <f>CO2_S2_BC!D6</f>
-        <v>SK5D</v>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>CO2_S2_BC!E6</f>
+        <v>525578.95400000003</v>
+      </c>
+      <c r="F4">
+        <f>CO2_S2_BC!F6</f>
+        <v>774752.152</v>
       </c>
       <c r="G4">
         <f>CO2_S2_BC!G6</f>
@@ -1277,7 +1296,7 @@
       </c>
       <c r="H4">
         <f>CO2_S2_BC!H6</f>
-        <v>6.5314241199999996</v>
+        <v>9.0551068999999984</v>
       </c>
       <c r="I4">
         <f>CO2_S2_BC!I6</f>
@@ -1288,12 +1307,12 @@
       </c>
       <c r="L4" s="4">
         <f>CO2_S2_BC!L6</f>
-        <v>0.20611606980931199</v>
+        <v>0.28575744150743998</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -1301,9 +1320,17 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5">
         <f>CO2_S2_BC!D7</f>
-        <v>APO1D</v>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>CO2_S2_BC!E7</f>
+        <v>525041.20600000001</v>
+      </c>
+      <c r="F5">
+        <f>CO2_S2_BC!F7</f>
+        <v>774838.29599999997</v>
       </c>
       <c r="G5">
         <f>CO2_S2_BC!G7</f>
@@ -1311,7 +1338,7 @@
       </c>
       <c r="H5">
         <f>CO2_S2_BC!H7</f>
-        <v>6.6557796099999997</v>
+        <v>7.0254813900000013</v>
       </c>
       <c r="I5">
         <f>CO2_S2_BC!I7</f>
@@ -1322,7 +1349,7 @@
       </c>
       <c r="L5" s="4">
         <f>CO2_S2_BC!L7</f>
-        <v>0.21004043062053601</v>
+        <v>0.22170733151306402</v>
       </c>
     </row>
   </sheetData>
@@ -1347,21 +1374,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1375,7 +1402,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1389,7 +1416,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1426,15 +1453,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B3" s="6">
         <v>0.5</v>
@@ -2243,7 +2270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -2539,7 +2566,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <f>B4</f>
@@ -2548,7 +2575,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -2632,7 +2659,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <f>B5</f>
@@ -2641,7 +2668,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2726,7 +2753,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <f>B5</f>
@@ -2735,7 +2762,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2751,7 +2778,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,7 +2788,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -2781,107 +2808,127 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
-        <v>93</v>
+      <c r="D2">
+        <f>K2</f>
+        <v>525380.56099999999</v>
+      </c>
+      <c r="E2">
+        <f>L2</f>
+        <v>774425.84900000005</v>
       </c>
       <c r="F2" s="3">
         <v>750</v>
       </c>
       <c r="I2">
-        <v>125.21687</v>
+        <v>125.23125</v>
       </c>
       <c r="J2">
-        <v>7.0235099999999999</v>
+        <v>7.00319</v>
       </c>
       <c r="K2">
-        <v>523791.04599999997</v>
+        <v>525380.56099999999</v>
       </c>
       <c r="L2">
-        <v>776672.77300000004</v>
+        <v>774425.84900000005</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
       </c>
-      <c r="C3" t="s">
-        <v>94</v>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">K3</f>
+        <v>525599.83700000006</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="1">L3</f>
+        <v>774290.10699999996</v>
       </c>
       <c r="F3" s="3">
         <v>750</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3">
-        <v>125.21862</v>
+        <v>125.23323000000001</v>
       </c>
       <c r="J3">
-        <v>7.02644</v>
+        <v>7.0019600000000004</v>
       </c>
       <c r="K3">
-        <v>523984.217</v>
+        <v>525599.83700000006</v>
       </c>
       <c r="L3">
-        <v>776996.46600000001</v>
+        <v>774290.10699999996</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
-        <v>95</v>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>525578.95400000003</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>774752.152</v>
       </c>
       <c r="F4" s="3">
         <v>750</v>
       </c>
       <c r="I4">
-        <v>125.22084</v>
+        <v>125.23304</v>
       </c>
       <c r="J4">
-        <v>7.0212399999999997</v>
+        <v>7.0061400000000003</v>
       </c>
       <c r="K4">
-        <v>524229.59700000001</v>
+        <v>525578.95400000003</v>
       </c>
       <c r="L4">
-        <v>776422.17200000002</v>
+        <v>774752.152</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C5" t="s">
-        <v>96</v>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>525041.20600000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>774838.29599999997</v>
       </c>
       <c r="F5" s="3">
         <v>750</v>
       </c>
       <c r="I5">
-        <v>125.22254</v>
+        <v>125.22817999999999</v>
       </c>
       <c r="J5">
-        <v>7.0242199999999997</v>
+        <v>7.00692</v>
       </c>
       <c r="K5">
-        <v>524417.54799999995</v>
+        <v>525041.20600000001</v>
       </c>
       <c r="L5">
-        <v>776751.08600000001</v>
+        <v>774838.29599999997</v>
       </c>
     </row>
   </sheetData>
@@ -2893,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2946,7 +2993,7 @@
         <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3005,9 +3052,13 @@
       <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" t="str">
-        <f>hist!C2</f>
-        <v>SK2D</v>
+      <c r="E4">
+        <f>hist!D2</f>
+        <v>525380.56099999999</v>
+      </c>
+      <c r="F4">
+        <f>hist!E2</f>
+        <v>774425.84900000005</v>
       </c>
       <c r="G4">
         <f>hist!F2</f>
